--- a/lctoh/src/main/resources/平台管理.xlsx
+++ b/lctoh/src/main/resources/平台管理.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="管理员" sheetId="1" r:id="rId1"/>
+    <sheet name="骑手" sheetId="2" r:id="rId2"/>
+    <sheet name="店家" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,9 +32,6 @@
   </si>
   <si>
     <t>查看，封号，解封</t>
-  </si>
-  <si>
-    <t>查看，封号，解封</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整体概况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,15 +55,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平台完成交易额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平台产生订单数（配送完成）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过程线柱状图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（按天计算画图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台完成交易额累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删改查公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与其他的部分相比，多一个添加公告（公告标题，公告内容，公告类型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计，交易额，下单量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计，交易额，配送量（弹出框）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加骑手（查看申请成为骑手的列表），查看，封号，解封 （地体加列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加骑手（查看申请成为骑手的列表）查看，封号，解封，（地图加列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看没有骑手的接手的订单（详细信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢单</t>
+  </si>
+  <si>
+    <t>配送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认送达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看系统公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计（日统计，周统计，月统计，自定义时间统计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程线，统计图？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班下班注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新基本信息（所属区域，姓名，邮箱，电话，性别）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js每隔60秒向后台发送位置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单增加地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加订单接收页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有邮箱验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计，交易额，接单量（弹出框），菜肴数量种类统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,16 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.875" customWidth="1"/>
+    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -416,54 +524,92 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -471,4 +617,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>